--- a/biology/Zoologie/Chaerilus_petrzelkai/Chaerilus_petrzelkai.xlsx
+++ b/biology/Zoologie/Chaerilus_petrzelkai/Chaerilus_petrzelkai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaerilus petrzelkai est une espèce de scorpions de la famille des Chaerilidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Viêt Nam[1]. Elle se rencontre dans la province de Đồng Nai et sur l'île de Côn Sơn dans les îles Côn Đảo dans la province de Bà Rịa-Vũng Tàu[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Viêt Nam. Elle se rencontre dans la province de Đồng Nai et sur l'île de Côn Sơn dans les îles Côn Đảo dans la province de Bà Rịa-Vũng Tàu.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 21,4 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 21,4 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaerilus phami[3] a été placée en synonymie avec Chaerilus petrzelkai par Kovařík en 2013[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaerilus phami a été placée en synonymie avec Chaerilus petrzelkai par Kovařík en 2013.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karel Petrželka[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karel Petrželka.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Kovařík, 2000 : Revision of family Chaerilidae (Scorpiones), with descriptions of three new species. Serket, vol. 7, no 2, p. 38-77 (texte intégral).</t>
         </is>
